--- a/Project-Data/xlsx-files/Publications_Of_The_Asrtronomical_Society_Of_ThePacific.xlsx
+++ b/Project-Data/xlsx-files/Publications_Of_The_Asrtronomical_Society_Of_ThePacific.xlsx
@@ -32,15 +32,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="[$₹-4009]#,##0.00;[RED]\-[$₹-4009]#,##0.00"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -56,17 +56,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="10"/>
-      <name val="FreeSans"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="FreeSans"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -86,7 +75,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="24">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -110,14 +99,6 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -125,17 +106,13 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="10">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Result" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Result2" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading1" xfId="23" builtinId="53" customBuiltin="true"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -145,10 +122,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G:G"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -160,7 +137,7 @@
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
     </row>
@@ -168,7 +145,7 @@
       <c r="A3" s="0" t="n">
         <v>1999</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="B3" s="0" t="n">
         <v>816</v>
       </c>
     </row>
@@ -176,7 +153,7 @@
       <c r="A4" s="0" t="n">
         <v>2000</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="B4" s="0" t="n">
         <v>949</v>
       </c>
     </row>
@@ -184,7 +161,7 @@
       <c r="A5" s="0" t="n">
         <v>2001</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="B5" s="0" t="n">
         <v>824</v>
       </c>
     </row>
@@ -192,7 +169,7 @@
       <c r="A6" s="0" t="n">
         <v>2002</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="B6" s="0" t="n">
         <v>112</v>
       </c>
     </row>
@@ -200,7 +177,7 @@
       <c r="A7" s="0" t="n">
         <v>2003</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="B7" s="0" t="n">
         <v>951</v>
       </c>
     </row>
@@ -208,7 +185,7 @@
       <c r="A8" s="0" t="n">
         <v>2004</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="B8" s="0" t="n">
         <v>1062</v>
       </c>
     </row>
@@ -216,7 +193,7 @@
       <c r="A9" s="0" t="n">
         <v>2005</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="B9" s="0" t="n">
         <v>1087</v>
       </c>
     </row>
@@ -224,7 +201,7 @@
       <c r="A10" s="0" t="n">
         <v>2006</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="B10" s="0" t="n">
         <v>1499</v>
       </c>
     </row>
@@ -232,7 +209,7 @@
       <c r="A11" s="0" t="n">
         <v>2007</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="B11" s="0" t="n">
         <v>1307</v>
       </c>
     </row>
@@ -240,7 +217,7 @@
       <c r="A12" s="0" t="n">
         <v>2008</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="B12" s="0" t="n">
         <v>1258</v>
       </c>
     </row>
@@ -248,7 +225,7 @@
       <c r="A13" s="0" t="n">
         <v>2009</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="B13" s="0" t="n">
         <v>1098</v>
       </c>
     </row>
@@ -256,7 +233,7 @@
       <c r="A14" s="0" t="n">
         <v>2010</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="B14" s="0" t="n">
         <v>1195</v>
       </c>
     </row>
@@ -264,7 +241,7 @@
       <c r="A15" s="0" t="n">
         <v>2011</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="B15" s="0" t="n">
         <v>1262</v>
       </c>
     </row>
@@ -272,7 +249,7 @@
       <c r="A16" s="0" t="n">
         <v>2012</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="B16" s="0" t="n">
         <v>1496</v>
       </c>
     </row>
@@ -280,7 +257,7 @@
       <c r="A17" s="0" t="n">
         <v>2013</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="B17" s="0" t="n">
         <v>1342</v>
       </c>
     </row>
@@ -288,7 +265,7 @@
       <c r="A18" s="0" t="n">
         <v>2014</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="B18" s="0" t="n">
         <v>1332</v>
       </c>
     </row>
@@ -296,7 +273,7 @@
       <c r="A19" s="0" t="n">
         <v>2015</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="B19" s="0" t="n">
         <v>1301</v>
       </c>
     </row>
@@ -304,7 +281,7 @@
       <c r="A20" s="0" t="n">
         <v>2016</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="B20" s="0" t="n">
         <v>1558</v>
       </c>
     </row>
